--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf2-Bmpr2.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>14.68541320047222</v>
+        <v>15.55770628936111</v>
       </c>
       <c r="R2">
-        <v>132.16871880425</v>
+        <v>140.01935660425</v>
       </c>
       <c r="S2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="T2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -617,16 +617,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
         <v>15.73415239194444</v>
@@ -635,10 +635,10 @@
         <v>141.6073715275</v>
       </c>
       <c r="S3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="T3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>7.141839170277778</v>
+        <v>12.95111991086111</v>
       </c>
       <c r="R4">
-        <v>64.27655253249999</v>
+        <v>116.56007919775</v>
       </c>
       <c r="S4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="T4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>6.079421723222223</v>
+        <v>5.404036386472221</v>
       </c>
       <c r="R5">
-        <v>54.714795509</v>
+        <v>48.63632747824999</v>
       </c>
       <c r="S5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="T5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
     </row>
   </sheetData>
